--- a/_Template/SpreadSheets/Template.xlsx
+++ b/_Template/SpreadSheets/Template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345D7BC4-827A-499F-BFB5-BAABC6108CCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFF8A77-06BC-46E7-A0D9-32E6BC5D0124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1455" windowWidth="22575" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="1800" windowWidth="22575" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -802,12 +802,12 @@
     <t>G8</t>
   </si>
   <si>
-    <t>Colot</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Skip converting if Sheet name contains 'Ignore'</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" s="14">
         <v>100</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="10" spans="1:11" ht="45.75">
       <c r="A10" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="38"/>
@@ -5311,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>

--- a/_Template/SpreadSheets/Template.xlsx
+++ b/_Template/SpreadSheets/Template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFF8A77-06BC-46E7-A0D9-32E6BC5D0124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A94FE54-5DCE-4C36-999D-C7CF93CE6EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1800" windowWidth="22575" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="630" windowWidth="22575" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -1618,10 +1618,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
